--- a/WBAN_Sim/WBAN_GenResult/Energy1201-CC5FC1.xlsx
+++ b/WBAN_Sim/WBAN_GenResult/Energy1201-CC5FC1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GW數據" sheetId="13" r:id="rId1"/>
@@ -187,14 +187,69 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Meet Ratio 6</a:t>
+              <a:t>Meet Ratio </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=6</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -464,11 +519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44431872"/>
-        <c:axId val="42831808"/>
+        <c:axId val="139046912"/>
+        <c:axId val="103798400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44431872"/>
+        <c:axId val="139046912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +533,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42831808"/>
+        <c:crossAx val="103798400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -486,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42831808"/>
+        <c:axId val="103798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -499,7 +554,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44431872"/>
+        <c:crossAx val="139046912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -871,11 +926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47265280"/>
-        <c:axId val="51407680"/>
+        <c:axId val="139367936"/>
+        <c:axId val="139299648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47265280"/>
+        <c:axId val="139367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51407680"/>
+        <c:crossAx val="139299648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -893,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51407680"/>
+        <c:axId val="139299648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -906,7 +961,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47265280"/>
+        <c:crossAx val="139367936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1268,11 +1323,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47266304"/>
-        <c:axId val="51409408"/>
+        <c:axId val="139368960"/>
+        <c:axId val="139301376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47266304"/>
+        <c:axId val="139368960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,7 +1337,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51409408"/>
+        <c:crossAx val="139301376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1290,7 +1345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51409408"/>
+        <c:axId val="139301376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1303,7 +1358,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47266304"/>
+        <c:crossAx val="139368960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,11 +1731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47266816"/>
-        <c:axId val="51412288"/>
+        <c:axId val="139369472"/>
+        <c:axId val="139304256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47266816"/>
+        <c:axId val="139369472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1745,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51412288"/>
+        <c:crossAx val="139304256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +1753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51412288"/>
+        <c:axId val="139304256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1711,7 +1766,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47266816"/>
+        <c:crossAx val="139369472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2074,11 +2129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48013824"/>
-        <c:axId val="51586176"/>
+        <c:axId val="139858432"/>
+        <c:axId val="139303680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48013824"/>
+        <c:axId val="139858432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2143,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51586176"/>
+        <c:crossAx val="139303680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2096,7 +2151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51586176"/>
+        <c:axId val="139303680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2109,7 +2164,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48013824"/>
+        <c:crossAx val="139858432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,11 +2536,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48014848"/>
-        <c:axId val="51590208"/>
+        <c:axId val="139859456"/>
+        <c:axId val="88051648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48014848"/>
+        <c:axId val="139859456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51590208"/>
+        <c:crossAx val="88051648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2503,7 +2558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51590208"/>
+        <c:axId val="88051648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2516,7 +2571,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48014848"/>
+        <c:crossAx val="139859456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2878,11 +2933,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48016896"/>
-        <c:axId val="51592512"/>
+        <c:axId val="139861504"/>
+        <c:axId val="88053952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48016896"/>
+        <c:axId val="139861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2947,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51592512"/>
+        <c:crossAx val="88053952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2900,7 +2955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51592512"/>
+        <c:axId val="88053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2913,7 +2968,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48016896"/>
+        <c:crossAx val="139861504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3285,11 +3340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48015872"/>
-        <c:axId val="51120384"/>
+        <c:axId val="139860480"/>
+        <c:axId val="140092544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48015872"/>
+        <c:axId val="139860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3354,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51120384"/>
+        <c:crossAx val="140092544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3307,7 +3362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51120384"/>
+        <c:axId val="140092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3320,7 +3375,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48015872"/>
+        <c:crossAx val="139860480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3363,14 +3418,69 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Meet Ratio 8</a:t>
+              <a:t>Meet Ratio </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=8</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3640,11 +3750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51667456"/>
-        <c:axId val="51122688"/>
+        <c:axId val="140141056"/>
+        <c:axId val="140094848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51667456"/>
+        <c:axId val="140141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,7 +3764,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51122688"/>
+        <c:crossAx val="140094848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3662,7 +3772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51122688"/>
+        <c:axId val="140094848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3675,7 +3785,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51667456"/>
+        <c:crossAx val="140141056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,8 +3827,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3727,9 +3858,36 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>8</a:t>
@@ -3999,11 +4157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51668480"/>
-        <c:axId val="51125568"/>
+        <c:axId val="140142080"/>
+        <c:axId val="140097728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51668480"/>
+        <c:axId val="140142080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4171,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51125568"/>
+        <c:crossAx val="140097728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4021,7 +4179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51125568"/>
+        <c:axId val="140097728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4034,7 +4192,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51668480"/>
+        <c:crossAx val="140142080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4077,14 +4235,69 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Meet Ratio 10</a:t>
+              <a:t>Meet Ratio </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=10</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4354,11 +4567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46878208"/>
-        <c:axId val="51807360"/>
+        <c:axId val="139366912"/>
+        <c:axId val="140098880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46878208"/>
+        <c:axId val="139366912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4368,7 +4581,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51807360"/>
+        <c:crossAx val="140098880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4376,7 +4589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51807360"/>
+        <c:axId val="140098880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4389,7 +4602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46878208"/>
+        <c:crossAx val="139366912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4431,8 +4644,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -4441,9 +4675,36 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>6</a:t>
@@ -4713,11 +4974,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45385216"/>
-        <c:axId val="48800320"/>
+        <c:axId val="139048448"/>
+        <c:axId val="137019968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45385216"/>
+        <c:axId val="139048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4727,7 +4988,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48800320"/>
+        <c:crossAx val="137019968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4735,7 +4996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48800320"/>
+        <c:axId val="137019968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4748,7 +5009,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45385216"/>
+        <c:crossAx val="139048448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -4791,8 +5052,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -4801,9 +5083,36 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>10</a:t>
@@ -5073,11 +5382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51670528"/>
-        <c:axId val="51809664"/>
+        <c:axId val="140144128"/>
+        <c:axId val="140577024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51670528"/>
+        <c:axId val="140144128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +5396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51809664"/>
+        <c:crossAx val="140577024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5095,7 +5404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51809664"/>
+        <c:axId val="140577024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5108,7 +5417,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51670528"/>
+        <c:crossAx val="140144128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5344,11 +5653,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74109952"/>
-        <c:axId val="66409536"/>
+        <c:axId val="138240000"/>
+        <c:axId val="140579328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74109952"/>
+        <c:axId val="138240000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,7 +5667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66409536"/>
+        <c:crossAx val="140579328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5366,7 +5675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66409536"/>
+        <c:axId val="140579328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650000"/>
@@ -5379,7 +5688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74109952"/>
+        <c:crossAx val="138240000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000"/>
@@ -5621,11 +5930,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74113024"/>
-        <c:axId val="139536064"/>
+        <c:axId val="138241536"/>
+        <c:axId val="140581056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74113024"/>
+        <c:axId val="138241536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5944,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139536064"/>
+        <c:crossAx val="140581056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5643,7 +5952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139536064"/>
+        <c:axId val="140581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650000"/>
@@ -5656,7 +5965,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74113024"/>
+        <c:crossAx val="138241536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000"/>
@@ -5898,11 +6207,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="73972224"/>
-        <c:axId val="156467200"/>
+        <c:axId val="138243584"/>
+        <c:axId val="140580480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73972224"/>
+        <c:axId val="138243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5912,7 +6221,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156467200"/>
+        <c:crossAx val="140580480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5920,7 +6229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156467200"/>
+        <c:axId val="140580480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650000"/>
@@ -5933,7 +6242,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73972224"/>
+        <c:crossAx val="138243584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000"/>
@@ -6175,11 +6484,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74109440"/>
-        <c:axId val="156470656"/>
+        <c:axId val="138289152"/>
+        <c:axId val="138168000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74109440"/>
+        <c:axId val="138289152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6498,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156470656"/>
+        <c:crossAx val="138168000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6197,7 +6506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156470656"/>
+        <c:axId val="138168000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650000"/>
@@ -6210,7 +6519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74109440"/>
+        <c:crossAx val="138289152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000"/>
@@ -6253,14 +6562,69 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Meet Ratio 3</a:t>
+              <a:t>Meet Ratio </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6530,11 +6894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45386240"/>
-        <c:axId val="48802048"/>
+        <c:axId val="139049472"/>
+        <c:axId val="137021696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45386240"/>
+        <c:axId val="139049472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,7 +6908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48802048"/>
+        <c:crossAx val="137021696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6552,7 +6916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48802048"/>
+        <c:axId val="137021696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6565,7 +6929,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45386240"/>
+        <c:crossAx val="139049472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6607,8 +6971,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -6617,14 +7002,39 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>3</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=3</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6889,11 +7299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45387264"/>
-        <c:axId val="48804928"/>
+        <c:axId val="139050496"/>
+        <c:axId val="137024576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45387264"/>
+        <c:axId val="139050496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6903,7 +7313,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48804928"/>
+        <c:crossAx val="137024576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6911,7 +7321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48804928"/>
+        <c:axId val="137024576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6924,7 +7334,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45387264"/>
+        <c:crossAx val="139050496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -6967,14 +7377,69 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Meet Ratio 4</a:t>
+              <a:t>Meet Ratio </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7244,11 +7709,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46875136"/>
-        <c:axId val="48806656"/>
+        <c:axId val="139133440"/>
+        <c:axId val="137026304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46875136"/>
+        <c:axId val="139133440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7258,7 +7723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48806656"/>
+        <c:crossAx val="137026304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7266,7 +7731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48806656"/>
+        <c:axId val="137026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7279,7 +7744,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46875136"/>
+        <c:crossAx val="139133440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7321,8 +7786,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -7331,14 +7817,39 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>4</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=4</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7603,11 +8114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46876160"/>
-        <c:axId val="49694400"/>
+        <c:axId val="139134464"/>
+        <c:axId val="139224768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46876160"/>
+        <c:axId val="139134464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7617,7 +8128,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49694400"/>
+        <c:crossAx val="139224768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7625,7 +8136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49694400"/>
+        <c:axId val="139224768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7638,7 +8149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46876160"/>
+        <c:crossAx val="139134464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -7681,14 +8192,69 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Meet Ratio 5</a:t>
+              <a:t>Meet Ratio </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7958,11 +8524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44432384"/>
-        <c:axId val="49696128"/>
+        <c:axId val="139047936"/>
+        <c:axId val="139226496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44432384"/>
+        <c:axId val="139047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,7 +8538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49696128"/>
+        <c:crossAx val="139226496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7980,7 +8546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49696128"/>
+        <c:axId val="139226496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7993,7 +8559,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44432384"/>
+        <c:crossAx val="139047936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8035,8 +8601,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -8045,9 +8632,36 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Task=</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>5</a:t>
@@ -8317,11 +8931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46877696"/>
-        <c:axId val="49699008"/>
+        <c:axId val="139136512"/>
+        <c:axId val="139229376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46877696"/>
+        <c:axId val="139136512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8331,7 +8945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49699008"/>
+        <c:crossAx val="139229376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8339,7 +8953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49699008"/>
+        <c:axId val="139229376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8352,7 +8966,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46877696"/>
+        <c:crossAx val="139136512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8720,11 +9334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47263744"/>
-        <c:axId val="51404800"/>
+        <c:axId val="117536256"/>
+        <c:axId val="139296768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47263744"/>
+        <c:axId val="117536256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8734,7 +9348,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51404800"/>
+        <c:crossAx val="139296768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8742,7 +9356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51404800"/>
+        <c:axId val="139296768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8755,7 +9369,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47263744"/>
+        <c:crossAx val="117536256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9548,9 +10162,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="771045" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -9560,7 +10174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14839950" y="11277600"/>
+          <a:off x="14820900" y="11458575"/>
           <a:ext cx="771045" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9601,9 +10215,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="771045" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -9613,7 +10227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19640550" y="11268075"/>
+          <a:off x="19650075" y="11458575"/>
           <a:ext cx="771045" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10108,6 +10722,218 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文字方塊 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19640550" y="14382750"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文字方塊 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14849475" y="14392275"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文字方塊 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14849475" y="17316450"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文字方塊 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19650075" y="17325975"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10894,8 +11720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O141"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="O64" workbookViewId="0">
+      <selection activeCell="AD87" sqref="AD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12510,18 +13336,18 @@
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <f>(D30-E30)</f>
+        <f t="shared" ref="D116:D139" si="0">(D30-E30)</f>
         <v>0</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <f>F30-E30</f>
+        <f t="shared" ref="F116:F139" si="1">F30-E30</f>
         <v>-0.143266</v>
       </c>
       <c r="G116" s="1">
-        <f>G30-E30</f>
+        <f t="shared" ref="G116:G139" si="2">G30-E30</f>
         <v>-3.3451000000000009E-2</v>
       </c>
       <c r="J116">
@@ -12554,18 +13380,18 @@
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <f>(D31-E31)</f>
+        <f t="shared" si="0"/>
         <v>6.305000000000005E-3</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <f>F31-E31</f>
+        <f t="shared" si="1"/>
         <v>-0.14677099999999998</v>
       </c>
       <c r="G117" s="1">
-        <f>G31-E31</f>
+        <f t="shared" si="2"/>
         <v>-0.11500500000000002</v>
       </c>
       <c r="J117">
@@ -12578,15 +13404,15 @@
         <v>0</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" ref="M117:M139" si="0">M5-L5</f>
+        <f t="shared" ref="M117:M139" si="3">M5-L5</f>
         <v>-0.32105412810835965</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" ref="N117:N139" si="1">N5-L5</f>
+        <f t="shared" ref="N117:N139" si="4">N5-L5</f>
         <v>-0.38731151665546537</v>
       </c>
       <c r="O117" s="1">
-        <f t="shared" ref="O117:O139" si="2">O5-L5</f>
+        <f t="shared" ref="O117:O139" si="5">O5-L5</f>
         <v>-0.17446707680642437</v>
       </c>
     </row>
@@ -12598,18 +13424,18 @@
         <v>3</v>
       </c>
       <c r="D118" s="1">
-        <f>(D32-E32)</f>
+        <f t="shared" si="0"/>
         <v>-0.3906409999999999</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
       <c r="F118" s="1">
-        <f>F32-E32</f>
+        <f t="shared" si="1"/>
         <v>-0.13338099999999997</v>
       </c>
       <c r="G118" s="1">
-        <f>G32-E32</f>
+        <f t="shared" si="2"/>
         <v>-0.18421100000000001</v>
       </c>
       <c r="J118">
@@ -12622,15 +13448,15 @@
         <v>0</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.35672508573299555</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.39304227196746455</v>
       </c>
       <c r="O118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.22100501473401224</v>
       </c>
     </row>
@@ -12642,18 +13468,18 @@
         <v>3</v>
       </c>
       <c r="D119" s="1">
-        <f>(D33-E33)</f>
+        <f t="shared" si="0"/>
         <v>-0.51194099999999998</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
       <c r="F119" s="1">
-        <f>F33-E33</f>
+        <f t="shared" si="1"/>
         <v>-3.6673000000000067E-2</v>
       </c>
       <c r="G119" s="1">
-        <f>G33-E33</f>
+        <f t="shared" si="2"/>
         <v>-0.13763700000000001</v>
       </c>
       <c r="J119">
@@ -12666,15 +13492,15 @@
         <v>0</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.35954091919557463</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.39472849782005548</v>
       </c>
       <c r="O119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.27020196798152651</v>
       </c>
     </row>
@@ -12686,18 +13512,18 @@
         <v>4</v>
       </c>
       <c r="D120" s="1">
-        <f>(D34-E34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
       </c>
       <c r="F120" s="1">
-        <f>F34-E34</f>
+        <f t="shared" si="1"/>
         <v>-0.23446199999999995</v>
       </c>
       <c r="G120" s="1">
-        <f>G34-E34</f>
+        <f t="shared" si="2"/>
         <v>-3.7962999999999969E-2</v>
       </c>
       <c r="J120">
@@ -12710,15 +13536,15 @@
         <v>0</v>
       </c>
       <c r="M120" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4.7427148494718185E-2</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.14129056161574394</v>
       </c>
       <c r="O120" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.3239931758258883E-2</v>
       </c>
     </row>
@@ -12730,18 +13556,18 @@
         <v>4</v>
       </c>
       <c r="D121" s="1">
-        <f>(D35-E35)</f>
+        <f t="shared" si="0"/>
         <v>4.9240000000000395E-3</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
       </c>
       <c r="F121" s="1">
-        <f>F35-E35</f>
+        <f t="shared" si="1"/>
         <v>-0.23607199999999995</v>
       </c>
       <c r="G121" s="1">
-        <f>G35-E35</f>
+        <f t="shared" si="2"/>
         <v>-0.14455299999999993</v>
       </c>
       <c r="J121">
@@ -12754,15 +13580,15 @@
         <v>0</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.26891468059073897</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.37482810318978443</v>
       </c>
       <c r="O121" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.13645332506160701</v>
       </c>
     </row>
@@ -12774,18 +13600,18 @@
         <v>4</v>
       </c>
       <c r="D122" s="1">
-        <f>(D36-E36)</f>
+        <f t="shared" si="0"/>
         <v>-0.3365769999999999</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
       </c>
       <c r="F122" s="1">
-        <f>F36-E36</f>
+        <f t="shared" si="1"/>
         <v>-0.22610999999999992</v>
       </c>
       <c r="G122" s="1">
-        <f>G36-E36</f>
+        <f t="shared" si="2"/>
         <v>-0.23286099999999998</v>
       </c>
       <c r="J122">
@@ -12798,15 +13624,15 @@
         <v>0</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.31538110255217211</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.37621534060555917</v>
       </c>
       <c r="O122" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.12254217718726834</v>
       </c>
     </row>
@@ -12818,18 +13644,18 @@
         <v>4</v>
       </c>
       <c r="D123" s="1">
-        <f>(D37-E37)</f>
+        <f t="shared" si="0"/>
         <v>-0.39760800000000002</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f>F37-E37</f>
+        <f t="shared" si="1"/>
         <v>-0.124946</v>
       </c>
       <c r="G123" s="1">
-        <f>G37-E37</f>
+        <f t="shared" si="2"/>
         <v>-0.17886100000000005</v>
       </c>
       <c r="J123">
@@ -12842,15 +13668,15 @@
         <v>0</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.32899584690413408</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.37866756277033886</v>
       </c>
       <c r="O123" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.19096572403453438</v>
       </c>
     </row>
@@ -12862,18 +13688,18 @@
         <v>5</v>
       </c>
       <c r="D124" s="1">
-        <f>(D38-E38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
       </c>
       <c r="F124" s="1">
-        <f>F38-E38</f>
+        <f t="shared" si="1"/>
         <v>-0.45053399999999999</v>
       </c>
       <c r="G124" s="1">
-        <f>G38-E38</f>
+        <f t="shared" si="2"/>
         <v>-3.8185000000000024E-2</v>
       </c>
       <c r="J124">
@@ -12886,15 +13712,15 @@
         <v>0</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.1591790311740633E-2</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12972048458529351</v>
       </c>
       <c r="O124" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.2422064829653614E-3</v>
       </c>
     </row>
@@ -12906,18 +13732,18 @@
         <v>5</v>
       </c>
       <c r="D125" s="1">
-        <f>(D39-E39)</f>
+        <f t="shared" si="0"/>
         <v>3.5969999999999613E-3</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
       </c>
       <c r="F125" s="1">
-        <f>F39-E39</f>
+        <f t="shared" si="1"/>
         <v>-0.38238500000000009</v>
       </c>
       <c r="G125" s="1">
-        <f>G39-E39</f>
+        <f t="shared" si="2"/>
         <v>-0.15172099999999999</v>
       </c>
       <c r="J125">
@@ -12930,15 +13756,15 @@
         <v>0</v>
       </c>
       <c r="M125" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.22532268348584328</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36347257405779876</v>
       </c>
       <c r="O125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.10399110789432875</v>
       </c>
     </row>
@@ -12950,18 +13776,18 @@
         <v>5</v>
       </c>
       <c r="D126" s="1">
-        <f>(D40-E40)</f>
+        <f t="shared" si="0"/>
         <v>-0.28737199999999996</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
       </c>
       <c r="F126" s="1">
-        <f>F40-E40</f>
+        <f t="shared" si="1"/>
         <v>-0.34488200000000002</v>
       </c>
       <c r="G126" s="1">
-        <f>G40-E40</f>
+        <f t="shared" si="2"/>
         <v>-0.25340999999999991</v>
       </c>
       <c r="J126">
@@ -12974,15 +13800,15 @@
         <v>0</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.25410484412965939</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.368161608850747</v>
       </c>
       <c r="O126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-7.5841389650002533E-2</v>
       </c>
     </row>
@@ -12994,18 +13820,18 @@
         <v>5</v>
       </c>
       <c r="D127" s="1">
-        <f>(D41-E41)</f>
+        <f t="shared" si="0"/>
         <v>-0.29898699999999995</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
       </c>
       <c r="F127" s="1">
-        <f>F41-E41</f>
+        <f t="shared" si="1"/>
         <v>-0.21131199999999994</v>
       </c>
       <c r="G127" s="1">
-        <f>G41-E41</f>
+        <f t="shared" si="2"/>
         <v>-0.15599499999999999</v>
       </c>
       <c r="J127">
@@ -13018,15 +13844,15 @@
         <v>0</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.29419083561667436</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.37044925812955587</v>
       </c>
       <c r="O127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.13121887332195969</v>
       </c>
     </row>
@@ -13038,18 +13864,18 @@
         <v>6</v>
       </c>
       <c r="D128" s="1">
-        <f>(D42-E42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <f>F42-E42</f>
+        <f t="shared" si="1"/>
         <v>-0.59875999999999996</v>
       </c>
       <c r="G128" s="1">
-        <f>G42-E42</f>
+        <f t="shared" si="2"/>
         <v>-4.5063999999999993E-2</v>
       </c>
       <c r="J128">
@@ -13062,15 +13888,15 @@
         <v>0</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.1478743386927115E-2</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12504954419342051</v>
       </c>
       <c r="O128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-6.4080028951042367E-3</v>
       </c>
     </row>
@@ -13082,18 +13908,18 @@
         <v>6</v>
       </c>
       <c r="D129" s="1">
-        <f>(D43-E43)</f>
+        <f t="shared" si="0"/>
         <v>4.3950000000000378E-3</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
       </c>
       <c r="F129" s="1">
-        <f>F43-E43</f>
+        <f t="shared" si="1"/>
         <v>-0.56945599999999996</v>
       </c>
       <c r="G129" s="1">
-        <f>G43-E43</f>
+        <f t="shared" si="2"/>
         <v>-0.15670200000000001</v>
       </c>
       <c r="J129">
@@ -13106,15 +13932,15 @@
         <v>0</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.18617673921659861</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.35852935601164937</v>
       </c>
       <c r="O129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-8.8171431525616462E-2</v>
       </c>
     </row>
@@ -13126,18 +13952,18 @@
         <v>6</v>
       </c>
       <c r="D130" s="1">
-        <f>(D44-E44)</f>
+        <f t="shared" si="0"/>
         <v>-0.21929900000000002</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
       </c>
       <c r="F130" s="1">
-        <f>F44-E44</f>
+        <f t="shared" si="1"/>
         <v>-0.47230600000000006</v>
       </c>
       <c r="G130" s="1">
-        <f>G44-E44</f>
+        <f t="shared" si="2"/>
         <v>-0.21248600000000006</v>
       </c>
       <c r="J130">
@@ -13150,15 +13976,15 @@
         <v>0</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.2076573782074479</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36403608540557308</v>
       </c>
       <c r="O130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.5115373347808685E-2</v>
       </c>
     </row>
@@ -13170,18 +13996,18 @@
         <v>6</v>
       </c>
       <c r="D131" s="1">
-        <f>(D45-E45)</f>
+        <f t="shared" si="0"/>
         <v>-0.23147100000000009</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
       </c>
       <c r="F131" s="1">
-        <f>F45-E45</f>
+        <f t="shared" si="1"/>
         <v>-0.32969900000000002</v>
       </c>
       <c r="G131" s="1">
-        <f>G45-E45</f>
+        <f t="shared" si="2"/>
         <v>-0.14154900000000004</v>
       </c>
       <c r="J131">
@@ -13194,15 +14020,15 @@
         <v>0</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.25474676454876</v>
       </c>
       <c r="N131" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36513725895672844</v>
       </c>
       <c r="O131" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-8.614658188147295E-2</v>
       </c>
     </row>
@@ -13214,18 +14040,18 @@
         <v>8</v>
       </c>
       <c r="D132" s="1">
-        <f>(D46-E46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
       </c>
       <c r="F132" s="1">
-        <f>F46-E46</f>
+        <f t="shared" si="1"/>
         <v>-0.76193500000000003</v>
       </c>
       <c r="G132" s="1">
-        <f>G46-E46</f>
+        <f t="shared" si="2"/>
         <v>-5.766300000000002E-2</v>
       </c>
       <c r="J132">
@@ -13238,15 +14064,15 @@
         <v>0</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.9032208033917826E-4</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12242240948491268</v>
       </c>
       <c r="O132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-7.883989039962791E-3</v>
       </c>
     </row>
@@ -13258,18 +14084,18 @@
         <v>8</v>
       </c>
       <c r="D133" s="1">
-        <f>(D47-E47)</f>
+        <f t="shared" si="0"/>
         <v>1.0430000000000161E-3</v>
       </c>
       <c r="E133" s="1">
         <v>0</v>
       </c>
       <c r="F133" s="1">
-        <f>F47-E47</f>
+        <f t="shared" si="1"/>
         <v>-0.74499399999999993</v>
       </c>
       <c r="G133" s="1">
-        <f>G47-E47</f>
+        <f t="shared" si="2"/>
         <v>-0.16137699999999999</v>
       </c>
       <c r="J133">
@@ -13282,15 +14108,15 @@
         <v>0</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.10417205190508205</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.35445983904599443</v>
       </c>
       <c r="O133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-7.6289441486153686E-2</v>
       </c>
     </row>
@@ -13302,18 +14128,18 @@
         <v>8</v>
       </c>
       <c r="D134" s="1">
-        <f>(D48-E48)</f>
+        <f t="shared" si="0"/>
         <v>-0.18253799999999998</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
       </c>
       <c r="F134" s="1">
-        <f>F48-E48</f>
+        <f t="shared" si="1"/>
         <v>-0.5971789999999999</v>
       </c>
       <c r="G134" s="1">
-        <f>G48-E48</f>
+        <f t="shared" si="2"/>
         <v>-0.18053399999999997</v>
       </c>
       <c r="J134">
@@ -13326,15 +14152,15 @@
         <v>0</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.15150700511813053</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36243860828206587</v>
       </c>
       <c r="O134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.2816178117837538E-2</v>
       </c>
     </row>
@@ -13346,18 +14172,18 @@
         <v>8</v>
       </c>
       <c r="D135" s="1">
-        <f>(D49-E49)</f>
+        <f t="shared" si="0"/>
         <v>-0.13300299999999998</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
       <c r="F135" s="1">
-        <f>F49-E49</f>
+        <f t="shared" si="1"/>
         <v>-0.42056199999999999</v>
       </c>
       <c r="G135" s="1">
-        <f>G49-E49</f>
+        <f t="shared" si="2"/>
         <v>-9.5106000000000024E-2</v>
       </c>
       <c r="J135">
@@ -13370,15 +14196,15 @@
         <v>0</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.2029485257371314</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36248169018938803</v>
       </c>
       <c r="O135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.3228385807096315E-2</v>
       </c>
     </row>
@@ -13390,18 +14216,18 @@
         <v>10</v>
       </c>
       <c r="D136" s="1">
-        <f>(D50-E50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
       </c>
       <c r="F136" s="1">
-        <f>F50-E50</f>
+        <f t="shared" si="1"/>
         <v>-0.86426700000000001</v>
       </c>
       <c r="G136" s="1">
-        <f>G50-E50</f>
+        <f t="shared" si="2"/>
         <v>-6.5285999999999955E-2</v>
       </c>
       <c r="J136">
@@ -13414,15 +14240,15 @@
         <v>0</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N136" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12179599855244794</v>
       </c>
       <c r="O136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-9.4780196108842363E-3</v>
       </c>
     </row>
@@ -13434,18 +14260,18 @@
         <v>10</v>
       </c>
       <c r="D137" s="1">
-        <f>(D51-E51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
       </c>
       <c r="F137" s="1">
-        <f>F51-E51</f>
+        <f t="shared" si="1"/>
         <v>-0.85320399999999996</v>
       </c>
       <c r="G137" s="1">
-        <f>G51-E51</f>
+        <f t="shared" si="2"/>
         <v>-0.173292</v>
       </c>
       <c r="J137">
@@ -13458,15 +14284,15 @@
         <v>0</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5.0621241103586123E-2</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.35281497182443256</v>
       </c>
       <c r="O137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-7.5505350772889335E-2</v>
       </c>
     </row>
@@ -13478,18 +14304,18 @@
         <v>10</v>
       </c>
       <c r="D138" s="1">
-        <f>(D52-E52)</f>
+        <f t="shared" si="0"/>
         <v>-0.145042</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
       </c>
       <c r="F138" s="1">
-        <f>F52-E52</f>
+        <f t="shared" si="1"/>
         <v>-0.71220899999999998</v>
       </c>
       <c r="G138" s="1">
-        <f>G52-E52</f>
+        <f t="shared" si="2"/>
         <v>-0.15035600000000005</v>
       </c>
       <c r="J138">
@@ -13502,15 +14328,15 @@
         <v>0</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.4547553809302243E-2</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36206982715538782</v>
       </c>
       <c r="O138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.5475021110134435E-2</v>
       </c>
     </row>
@@ -13522,18 +14348,18 @@
         <v>10</v>
       </c>
       <c r="D139" s="1">
-        <f>(D53-E53)</f>
+        <f t="shared" si="0"/>
         <v>-6.0181999999999958E-2</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
       </c>
       <c r="F139" s="1">
-        <f>F53-E53</f>
+        <f t="shared" si="1"/>
         <v>-0.49451099999999998</v>
       </c>
       <c r="G139" s="1">
-        <f>G53-E53</f>
+        <f t="shared" si="2"/>
         <v>-3.5190999999999972E-2</v>
       </c>
       <c r="J139">
@@ -13546,15 +14372,15 @@
         <v>0</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.1607222250943493</v>
       </c>
       <c r="N139" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.3620853366420238</v>
       </c>
       <c r="O139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.8025470023608769E-2</v>
       </c>
     </row>
@@ -13568,15 +14394,15 @@
         <v>-0.51194099999999998</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" ref="E140:G140" si="3">MIN(E116:E139)</f>
+        <f t="shared" ref="E140:G140" si="6">MIN(E116:E139)</f>
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.86426700000000001</v>
       </c>
       <c r="G140" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.25340999999999991</v>
       </c>
       <c r="J140" s="2" t="s">
@@ -13588,15 +14414,15 @@
         <v>0</v>
       </c>
       <c r="M140" s="3">
-        <f t="shared" ref="M140:O140" si="4">MIN(M116:M139)</f>
+        <f t="shared" ref="M140:O140" si="7">MIN(M116:M139)</f>
         <v>-0.35954091919557463</v>
       </c>
       <c r="N140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.39472849782005548</v>
       </c>
       <c r="O140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.27020196798152651</v>
       </c>
     </row>
@@ -13610,15 +14436,15 @@
         <v>6.305000000000005E-3</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" ref="E141:G141" si="5">MAX(E116:E139)</f>
+        <f t="shared" ref="E141:G141" si="8">MAX(E116:E139)</f>
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.6673000000000067E-2</v>
       </c>
       <c r="G141" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.3451000000000009E-2</v>
       </c>
       <c r="J141" s="2" t="s">
@@ -13630,15 +14456,15 @@
         <v>0</v>
       </c>
       <c r="M141" s="3">
-        <f t="shared" ref="M141:O141" si="6">MAX(M116:M139)</f>
+        <f t="shared" ref="M141:O141" si="9">MAX(M116:M139)</f>
         <v>0</v>
       </c>
       <c r="N141" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.12179599855244794</v>
       </c>
       <c r="O141" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-5.2422064829653614E-3</v>
       </c>
     </row>
@@ -13654,7 +14480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="N29" workbookViewId="0">
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
@@ -15241,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f>(E29-D29)</f>
+        <f t="shared" ref="M29:M52" si="0">(E29-D29)</f>
         <v>522</v>
       </c>
       <c r="N29">
@@ -15280,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f>(E30-D30)</f>
+        <f t="shared" si="0"/>
         <v>1292</v>
       </c>
       <c r="N30">
@@ -15319,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f>(E31-D31)</f>
+        <f t="shared" si="0"/>
         <v>507</v>
       </c>
       <c r="N31">
@@ -15358,7 +16184,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <f>(E32-D32)</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="N32">
@@ -15397,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <f>(E33-D33)</f>
+        <f t="shared" si="0"/>
         <v>597</v>
       </c>
       <c r="N33">
@@ -15436,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <f>(E34-D34)</f>
+        <f t="shared" si="0"/>
         <v>1401</v>
       </c>
       <c r="N34">
@@ -15475,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <f>(E35-D35)</f>
+        <f t="shared" si="0"/>
         <v>1307</v>
       </c>
       <c r="N35">
@@ -15514,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <f>(E36-D36)</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="N36">
@@ -15553,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <f>(E37-D37)</f>
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="N37">
@@ -15592,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <f>(E38-D38)</f>
+        <f t="shared" si="0"/>
         <v>1694</v>
       </c>
       <c r="N38">
@@ -15631,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <f>(E39-D39)</f>
+        <f t="shared" si="0"/>
         <v>1938</v>
       </c>
       <c r="N39">
@@ -15670,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <f>(E40-D40)</f>
+        <f t="shared" si="0"/>
         <v>1213</v>
       </c>
       <c r="N40">
@@ -15709,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <f>(E41-D41)</f>
+        <f t="shared" si="0"/>
         <v>263</v>
       </c>
       <c r="N41">
@@ -15748,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <f>(E42-D42)</f>
+        <f t="shared" si="0"/>
         <v>1897</v>
       </c>
       <c r="N42">
@@ -15787,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <f>(E43-D43)</f>
+        <f t="shared" si="0"/>
         <v>1880</v>
       </c>
       <c r="N43">
@@ -15826,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <f>(E44-D44)</f>
+        <f t="shared" si="0"/>
         <v>1505</v>
       </c>
       <c r="N44">
@@ -15865,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <f>(E45-D45)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N45">
@@ -15904,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <f>(E46-D46)</f>
+        <f t="shared" si="0"/>
         <v>1740</v>
       </c>
       <c r="N46">
@@ -15943,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <f>(E47-D47)</f>
+        <f t="shared" si="0"/>
         <v>1883</v>
       </c>
       <c r="N47">
@@ -15982,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <f>(E48-D48)</f>
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
       <c r="N48">
@@ -16021,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <f>(E49-D49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N49">
@@ -16060,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <f>(E50-D50)</f>
+        <f t="shared" si="0"/>
         <v>1014</v>
       </c>
       <c r="N50">
@@ -16099,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <f>(E51-D51)</f>
+        <f t="shared" si="0"/>
         <v>1898</v>
       </c>
       <c r="N51">
@@ -16138,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <f>(E52-D52)</f>
+        <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="N52">
@@ -16260,19 +17086,19 @@
         <v>5</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56:L60" si="0">D56/D56</f>
+        <f t="shared" ref="L56:L60" si="1">D56/D56</f>
         <v>1</v>
       </c>
       <c r="M56">
-        <f t="shared" ref="M56:M60" si="1">E56/D56</f>
+        <f t="shared" ref="M56:M60" si="2">E56/D56</f>
         <v>0.92770338398400876</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:N60" si="2">F56/D56</f>
+        <f t="shared" ref="N56:N60" si="3">F56/D56</f>
         <v>1.5566680228547169</v>
       </c>
       <c r="O56">
-        <f t="shared" ref="O56:O60" si="3">G56/D56</f>
+        <f t="shared" ref="O56:O60" si="4">G56/D56</f>
         <v>1.215050149475509</v>
       </c>
     </row>
@@ -16302,19 +17128,19 @@
         <v>8</v>
       </c>
       <c r="L57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0293179961229755</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2028548999503355</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2095836203720021</v>
       </c>
     </row>
@@ -16344,19 +17170,19 @@
         <v>3</v>
       </c>
       <c r="L58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58152562574493449</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67153537761404269</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62809621844186803</v>
       </c>
     </row>
@@ -16386,19 +17212,19 @@
         <v>5</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69604765143983394</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92158093942406638</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79615579160343952</v>
       </c>
     </row>
@@ -16428,19 +17254,19 @@
         <v>8</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89245584879452322</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.488242881238218</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0216725369580315</v>
       </c>
     </row>
